--- a/biology/Botanique/Sagebrush/Sagebrush.xlsx
+++ b/biology/Botanique/Sagebrush/Sagebrush.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Sagebrush est en anglais le nom commun pour certaines variétés de plantes du genre Artemisia,  en français les armoises. En anglais, les armoises sont communément appelées « sagebrush », « mugwort  » ou « wormwood ». Le nom provient de la ressemblance du genre avec la sauge (anglais : sage, Salvia officinalis).
-L'armoise la plus connue est l'arbuste Artemisia tridentata, l'armoise tridentée. Les armoises sont originaires de l'Ouest de l'Amérique du Nord. Elles y forment un biome appelé en anglais « Sagebrush scrub », la brousse d'armoises[1]. La Sagebrush steppe (en) est dominée par des brousses d'armoises.
+L'armoise la plus connue est l'arbuste Artemisia tridentata, l'armoise tridentée. Les armoises sont originaires de l'Ouest de l'Amérique du Nord. Elles y forment un biome appelé en anglais « Sagebrush scrub », la brousse d'armoises. La Sagebrush steppe (en) est dominée par des brousses d'armoises.
 Suit une liste alphabétique de différentes espèces du genre Artemisia, qui sont communément appelées « sagebrush» en anglais ainsi que leur nom scientifique correspondant. Beaucoup de ces espèces sont connues sous plus d'un nom commun, et certains noms communs représentent plus d'une espèce.
 Alpine sagebrush—Artemisia scopulorum [vi]
 African sagebrush—Artemisia afra
